--- a/8-Ressources/Couleur Thème/couleurs.xlsx
+++ b/8-Ressources/Couleur Thème/couleurs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugog\Desktop\Cours\IR\2ème\Chrono'Luge\8-Ressources\Couleur Thème\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugog\Desktop\Cours\IR\2ème\ChronoLuge\8-Ressources\Couleur Thème\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE12577-7BD4-4386-B622-F402AB9E3E2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8A5862-B39C-421F-93ED-A02B04147BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="12100" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
   <dimension ref="B1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
